--- a/BDF/rep.xlsx
+++ b/BDF/rep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cours\ensc\2A\BDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoi\Documents\2A\BDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC34C719-6E51-498F-8692-D81A1EEAD339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8DF8FA-D085-4476-9790-0B99A91C699F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="225" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Réponses au formulaire 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -206,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="G36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -218,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="G44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="G49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -242,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="G50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="H50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -266,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="G51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -278,67 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Le participant a mis à jour cette valeur.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Le participant a mis à jour cette valeur.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Le participant a mis à jour cette valeur.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Le participant a mis à jour cette valeur.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Le participant a mis à jour cette valeur.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="G56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -374,7 +314,67 @@
         </r>
       </text>
     </comment>
-    <comment ref="G79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="G62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Le participant a mis à jour cette valeur.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Le participant a mis à jour cette valeur.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Le participant a mis à jour cette valeur.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Le participant a mis à jour cette valeur.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G74" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Le participant a mis à jour cette valeur.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G77" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -417,9 +417,6 @@
     <t xml:space="preserve">Ton 06 (ou 07 pour les nazes), ou autre moyen de te contacter si ton fillot se perd </t>
   </si>
   <si>
-    <t xml:space="preserve">Migeon </t>
-  </si>
-  <si>
     <t xml:space="preserve">Agathe </t>
   </si>
   <si>
@@ -475,9 +472,6 @@
     <t>0641765106</t>
   </si>
   <si>
-    <t>Pelletreau-Duris</t>
-  </si>
-  <si>
     <t>Tom</t>
   </si>
   <si>
@@ -503,9 +497,6 @@
   </si>
   <si>
     <t>0783704605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciattoni </t>
   </si>
   <si>
     <t xml:space="preserve">Inès </t>
@@ -538,9 +529,6 @@
   </si>
   <si>
     <t>0658180079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Gasquet </t>
   </si>
   <si>
     <t>Colin</t>
@@ -557,9 +545,6 @@
   </si>
   <si>
     <t xml:space="preserve">06.95.26.01.84 / cdegasquet@ensc.fr </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largeault </t>
   </si>
   <si>
     <t>Nicolas</t>
@@ -696,9 +681,6 @@
     <t>0651022156</t>
   </si>
   <si>
-    <t xml:space="preserve">Vilayleck </t>
-  </si>
-  <si>
     <t xml:space="preserve">Élise </t>
   </si>
   <si>
@@ -762,9 +744,6 @@
     <t>MEDINA</t>
   </si>
   <si>
-    <t>Loïc</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1m7tI8UxmEa9rmMRbUUihxJ-KqzNvZP9d</t>
   </si>
   <si>
@@ -1044,9 +1023,6 @@
     <t>0649849637</t>
   </si>
   <si>
-    <t xml:space="preserve">Leroy </t>
-  </si>
-  <si>
     <t xml:space="preserve">Victor </t>
   </si>
   <si>
@@ -1164,13 +1140,6 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1ewS4f0C5dBBj6MZiiquaRWT4kfemvs1B</t>
-  </si>
-  <si>
-    <t>Un vert, avec ses pairs, jamais ne se perd,
-A la victoire 19h, retrouve tes 6 congénères, 
-Résoudre l'énigme tu devras faire, 
-On vous attend pour un ou plusieurs verres... 
-https://testsiteensc.000webhostapp.com/?id=2</t>
   </si>
   <si>
     <t>0770819621</t>
@@ -1346,9 +1315,6 @@
     <t>0648701825</t>
   </si>
   <si>
-    <t>Thélot</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1BhXgTaoLmaqNDhWzByuSG5pRg2tyiFFm</t>
   </si>
   <si>
@@ -1373,9 +1339,6 @@
   </si>
   <si>
     <t>0779494074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caracatsanis </t>
   </si>
   <si>
     <t xml:space="preserve">Oriane </t>
@@ -1567,9 +1530,6 @@
     <t>0633322894</t>
   </si>
   <si>
-    <t>Lanusse--Malhéné</t>
-  </si>
-  <si>
     <t>Corentin</t>
   </si>
   <si>
@@ -1587,9 +1547,6 @@
   </si>
   <si>
     <t>0782157624</t>
-  </si>
-  <si>
-    <t>Vallée</t>
   </si>
   <si>
     <t>Amandine</t>
@@ -1707,9 +1664,6 @@
     <t>0613274336</t>
   </si>
   <si>
-    <t>Othéguy</t>
-  </si>
-  <si>
     <t>Marion</t>
   </si>
   <si>
@@ -1729,9 +1683,6 @@
     <t>0676279606</t>
   </si>
   <si>
-    <t>Sillé</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1ZbdKqZtNRueLExb5GxN7mfuMDW40l5RI</t>
   </si>
   <si>
@@ -1769,6 +1720,56 @@
   <si>
     <t>0674604157</t>
   </si>
+  <si>
+    <t>Otheguy</t>
+  </si>
+  <si>
+    <t>Sille</t>
+  </si>
+  <si>
+    <t>Loic</t>
+  </si>
+  <si>
+    <t>Pelletreau</t>
+  </si>
+  <si>
+    <t>Thelot</t>
+  </si>
+  <si>
+    <t>Lanusse--Malhene</t>
+  </si>
+  <si>
+    <t>Vallee</t>
+  </si>
+  <si>
+    <t>Un vert, avec ses pairs, jamais ne se perd,
+A la victoire 19h, retrouve tes 6 congénères, 
+Résoudre l'énigme tu devras faire, 
+On vous attend pour un ou plusieurs verres... 
+https://testsiteensc.000webhostapp.com/?id=2
+Ps : j'ai appris que tu ne pouvais pas venir ce soir, et je suis trop triste 😢 J'espère que tu n'es pas trop en PLS et que tu va vite te rétablir !! 💚 En attendant, si tu m'as reconnue sur la photo, n'hésite pas à m'envoyer un message ! 😉 Et dès que tu vas mieux, on se capte pour boire un verre ou se faire une petite bouffe si t'es cho !</t>
+  </si>
+  <si>
+    <t>Caracatsanis</t>
+  </si>
+  <si>
+    <t>Ciattoni</t>
+  </si>
+  <si>
+    <t>De Gasquet</t>
+  </si>
+  <si>
+    <t>Largeault</t>
+  </si>
+  <si>
+    <t>Leroy</t>
+  </si>
+  <si>
+    <t>Migeon</t>
+  </si>
+  <si>
+    <t>Vilayleck</t>
+  </si>
 </sst>
 </file>
 
@@ -1777,7 +1778,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1827,6 +1828,12 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1854,7 +1861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1885,9 +1892,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1908,9 +1912,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1935,6 +1936,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2158,10 +2162,10 @@
   <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H79" sqref="H79"/>
+      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2206,1956 +2210,1962 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>44112.819791481481</v>
+      <c r="A2" s="19">
+        <v>44117.770812465278</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>44117.483440879631</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>44112.825432800921</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="I3" s="7"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>44112.829776898143</v>
+        <v>44117.696809872687</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>24</v>
+        <v>171</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>44113.010214027774</v>
+        <v>44117.488467962961</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>29</v>
+        <v>238</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>44113.468514791668</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>32</v>
+      <c r="A6" s="19">
+        <v>44117.771631296295</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>292</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>34</v>
+        <v>293</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>35</v>
+        <v>294</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>44117.436663020839</v>
+      <c r="A7" s="5">
+        <v>44117.536835092593</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>44117.464512407409</v>
+      <c r="A8" s="5">
+        <v>44116.844515821758</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>45</v>
+        <v>156</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
-        <v>44117.556765682872</v>
+        <v>44117.464512407409</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>44114.503220543978</v>
+      <c r="A10" s="5">
+        <v>44116.959971874996</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
-        <v>44117.877888402778</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>58</v>
+      <c r="A11" s="11">
+        <v>44113.468514791668</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>62</v>
+        <v>16</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>44116.857539178236</v>
+      <c r="A12" s="5">
+        <v>44116.92161208333</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>66</v>
+        <v>161</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
-        <v>44116.802506018517</v>
+        <v>44117.691979236115</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>379</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>268</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>71</v>
+        <v>269</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>72</v>
+        <v>271</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>44115.677090636571</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="A14" s="5">
+        <v>44117.898655949073</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
-        <v>44116.975948622683</v>
+        <v>44117.46713694444</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>81</v>
+        <v>16</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
-        <v>44117.483440879631</v>
+        <v>44117.436663020839</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>380</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>87</v>
+        <v>35</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
-        <v>44117.68476019676</v>
+        <v>44117.4248224537</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>44112.825432800921</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>44115.899608865744</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="G18" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>97</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H18" s="29"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>44117.474382083332</v>
+      <c r="A19" s="15">
+        <v>44117.816286331014</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>99</v>
+        <v>300</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>101</v>
+        <v>301</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>102</v>
+        <v>303</v>
       </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <v>44115.942219629629</v>
+      <c r="A20" s="15">
+        <v>44117.819433310186</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>103</v>
+        <v>304</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>104</v>
+        <v>305</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>105</v>
+        <v>306</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>106</v>
+        <v>307</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>107</v>
+        <v>308</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
-        <v>44116.874098576387</v>
+        <v>44117.556765682872</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>108</v>
+        <v>381</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>112</v>
+        <v>45</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
-        <v>44116.621292430558</v>
+        <v>44116.975948622683</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="H22" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
-        <v>44116.638168900463</v>
+        <v>44116.65247912037</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="H23" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
-        <v>44116.65247912037</v>
+        <v>44117.437585879627</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>123</v>
+        <v>218</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
-        <v>44117.4248224537</v>
+        <v>44117.450684976851</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>128</v>
+        <v>223</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="I25" s="7"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>44116.772896828705</v>
+      <c r="A26" s="15">
+        <v>44117.862635902777</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>130</v>
+        <v>338</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>131</v>
+        <v>339</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>132</v>
+        <v>340</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>134</v>
+        <v>341</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>44116.798159224534</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="I27" s="7"/>
+      <c r="A27" s="17">
+        <v>44117.967943599535</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>44116.813244942125</v>
+      <c r="A28" s="11">
+        <v>44117.462033460644</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="I28" s="7"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="18">
-        <v>44117.917978726851</v>
+      <c r="A29" s="15">
+        <v>44117.83721179398</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>144</v>
+        <v>313</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>145</v>
+        <v>314</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H29" s="15">
-        <v>601402930</v>
+        <v>315</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>44116.821577858791</v>
+      <c r="A30" s="11">
+        <v>44116.621292430558</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="G30" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>151</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="H30" s="10"/>
       <c r="I30" s="7"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>44116.900976921301</v>
+      <c r="A31" s="15">
+        <v>44117.788027870367</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>152</v>
+        <v>295</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>384</v>
+        <v>296</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>44116.827028819447</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="I32" s="7"/>
+        <v>44117.878027997685</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
-        <v>44116.844515821758</v>
+      <c r="A33" s="15">
+        <v>44117.837516840278</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>161</v>
+        <v>318</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>163</v>
+        <v>319</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>164</v>
+        <v>320</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>165</v>
+        <v>321</v>
       </c>
       <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>44116.92161208333</v>
+        <v>44116.928222083334</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="G34" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="H34" s="29" t="s">
         <v>168</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>44116.928222083334</v>
+        <v>44117.578531678242</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>175</v>
+        <v>266</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <v>44117.696809872687</v>
+      <c r="A36" s="11">
+        <v>44117.474271354164</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>179</v>
+        <v>209</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="I36" s="7"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>44116.95724856481</v>
+        <v>44116.827028819447</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <v>44116.959971874996</v>
+      <c r="A38" s="11">
+        <v>44115.677090636571</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="I38" s="7"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
-        <v>44116.970255590277</v>
+      <c r="A39" s="15">
+        <v>44117.858278518514</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>191</v>
+        <v>334</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>193</v>
+        <v>335</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>195</v>
+        <v>336</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>337</v>
       </c>
       <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>44116.979177395835</v>
+        <v>44117.565539687501</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <v>44117.542312777776</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>200</v>
+      <c r="A41" s="15">
+        <v>44117.845840000002</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>376</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>201</v>
+        <v>322</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>204</v>
+        <v>323</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>325</v>
       </c>
       <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>44117.536835092593</v>
+      <c r="A42" s="11">
+        <v>44114.503220543978</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>205</v>
+        <v>382</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>209</v>
+        <v>16</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="I42" s="7"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <v>44117.395590416665</v>
+        <v>44112.829776898143</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>214</v>
+        <v>23</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="11">
-        <v>44117.474271354164</v>
+      <c r="A44" s="5">
+        <v>44117.542312777776</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>218</v>
+        <v>194</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>195</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="I44" s="7"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="11">
-        <v>44117.47626369213</v>
+      <c r="A45" s="5">
+        <v>44117.547863761574</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>223</v>
+        <v>248</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="I45" s="7"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="11">
-        <v>44117.437585879627</v>
+      <c r="A46" s="5">
+        <v>44116.95724856481</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>225</v>
+        <v>383</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="I46" s="7"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
-        <v>44117.450684976851</v>
+        <v>44117.706655162037</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="I47" s="7"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="11">
-        <v>44117.46713694444</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
+      <c r="A48" s="5">
+        <v>44117.868466874999</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="24"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
-        <v>44117.462033460644</v>
+        <v>44116.857539178236</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>240</v>
+        <v>58</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>241</v>
+        <v>59</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>243</v>
+        <v>60</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c r="I49" s="7"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
-        <v>44117.488467962961</v>
+      <c r="A50" s="17">
+        <v>44117.917978726851</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>245</v>
+        <v>137</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>246</v>
+        <v>138</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>249</v>
+        <v>139</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H50" s="14">
+        <v>601402930</v>
       </c>
       <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <v>44117.681422465277</v>
+        <v>44116.900976921301</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>251</v>
+        <v>146</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>254</v>
+        <v>147</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>369</v>
       </c>
       <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
-        <v>44117.547863761574</v>
+      <c r="A52" s="11">
+        <v>44115.942219629629</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>256</v>
+        <v>373</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>257</v>
+        <v>98</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>258</v>
+        <v>99</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>259</v>
+        <v>100</v>
       </c>
       <c r="I52" s="7"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
-        <v>44117.557286261574</v>
+        <v>44112.819791481481</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>260</v>
+        <v>384</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>261</v>
+        <v>8</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>262</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F53" s="7"/>
       <c r="G53" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>264</v>
+        <v>11</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="I53" s="7"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
-        <v>44117.565539687501</v>
+        <v>44117.557286261574</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>268</v>
+        <v>254</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>255</v>
       </c>
       <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
-        <v>44117.572719421296</v>
+        <v>44116.821577858791</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>269</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>270</v>
+        <v>142</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>272</v>
+        <v>143</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>144</v>
       </c>
       <c r="I55" s="7"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
-        <v>44117.578531678242</v>
+      <c r="A56" s="11">
+        <v>44117.474382083332</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>273</v>
+        <v>92</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>274</v>
+        <v>93</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>276</v>
+        <v>94</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>277</v>
+        <v>96</v>
       </c>
       <c r="I56" s="7"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
-        <v>44117.691979236115</v>
+        <v>44115.899608865744</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>278</v>
+        <v>87</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>279</v>
+        <v>88</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>280</v>
+        <v>89</v>
       </c>
       <c r="G57" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
+        <v>44117.902966273148</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="15">
+        <v>44117.828733877315</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="H59" s="10"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="15">
+        <v>44117.776023831015</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="C60" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="11">
-        <v>44117.706655162037</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="D60" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="G60" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="9" t="s">
+      <c r="H60" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="11">
-        <v>44117.742526597227</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="16">
-        <v>44117.776023831015</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>296</v>
-      </c>
       <c r="I60" s="7"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="20">
-        <v>44117.770812465278</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>297</v>
+      <c r="A61" s="5">
+        <v>44113.010214027774</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>374</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>298</v>
+        <v>26</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>300</v>
+        <v>27</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="I61" s="7"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="20">
-        <v>44117.771631296295</v>
+      <c r="A62" s="11">
+        <v>44116.802506018517</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>301</v>
+        <v>63</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>302</v>
+        <v>64</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>304</v>
+        <v>65</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>305</v>
+        <v>67</v>
       </c>
       <c r="I62" s="7"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="16">
-        <v>44117.788027870367</v>
+      <c r="A63" s="5">
+        <v>44116.772896828705</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>306</v>
+        <v>123</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>307</v>
+        <v>125</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>308</v>
+        <v>126</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="16">
-        <v>44117.816286331014</v>
+      <c r="A64" s="11">
+        <v>44116.874098576387</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>310</v>
+        <v>101</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>311</v>
+        <v>102</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F64" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>313</v>
+        <v>103</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>314</v>
+        <v>105</v>
       </c>
       <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="16">
-        <v>44117.819433310186</v>
+      <c r="A65" s="5">
+        <v>44116.813244942125</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>315</v>
+        <v>132</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>316</v>
+        <v>133</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>317</v>
+        <v>134</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>318</v>
+        <v>135</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>319</v>
+        <v>136</v>
       </c>
       <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="16">
-        <v>44117.828733877315</v>
+      <c r="A66" s="11">
+        <v>44117.47626369213</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>320</v>
+        <v>211</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="H66" s="10"/>
+        <v>213</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>215</v>
+      </c>
       <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="16">
-        <v>44117.83721179398</v>
+      <c r="A67" s="15">
+        <v>44117.857569039348</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>325</v>
+        <v>165</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -4165,1402 +4175,1400 @@
       <c r="N67" s="7"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="16">
-        <v>44117.837516840278</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
+      <c r="A68" s="5">
+        <v>44117.919711469905</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="16">
-        <v>44117.845840000002</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>333</v>
+      <c r="A69" s="5">
+        <v>44117.572719421296</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>375</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>334</v>
+        <v>242</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>335</v>
+        <v>260</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>337</v>
+        <v>261</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="16">
-        <v>44117.851066469906</v>
+      <c r="A70" s="15">
+        <v>44117.877888402778</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>338</v>
+        <v>52</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>339</v>
+        <v>53</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>342</v>
+        <v>55</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="16">
-        <v>44117.857569039348</v>
+      <c r="A71" s="11">
+        <v>44117.742526597227</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>343</v>
+        <v>276</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>346</v>
+        <v>279</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>280</v>
       </c>
       <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="16">
-        <v>44117.858278518514</v>
+      <c r="A72" s="5">
+        <v>44116.979177395835</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>347</v>
+        <v>188</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>348</v>
+        <v>189</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>350</v>
+        <v>190</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="16">
-        <v>44117.862635902777</v>
+      <c r="A73" s="5">
+        <v>44117.395590416665</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>351</v>
+        <v>202</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>352</v>
+        <v>203</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>353</v>
+        <v>204</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>355</v>
+        <v>205</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>206</v>
       </c>
       <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
-        <v>44117.868466874999</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="D74" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="H74" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="26"/>
+        <v>44117.681422465277</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="I74" s="7"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
-        <v>44117.878027997685</v>
-      </c>
-      <c r="B75" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="G75" s="27" t="s">
-        <v>364</v>
+      <c r="A75" s="11">
+        <v>44116.638168900463</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>365</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="I75" s="7"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
-        <v>44117.898655949073</v>
-      </c>
-      <c r="B76" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="C76" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="G76" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="H76" s="29" t="s">
-        <v>370</v>
-      </c>
+      <c r="A76" s="15">
+        <v>44117.851066469906</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
-        <v>44117.902966273148</v>
-      </c>
-      <c r="B77" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="G77" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="H77" s="29" t="s">
-        <v>375</v>
-      </c>
+      <c r="A77" s="11">
+        <v>44117.68476019676</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I77" s="7"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
-        <v>44117.919711469905</v>
-      </c>
-      <c r="B78" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="G78" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="H78" s="29" t="s">
-        <v>385</v>
-      </c>
+        <v>44116.970255590277</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I78" s="7"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="18">
-        <v>44117.967943599535</v>
-      </c>
-      <c r="B79" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="G79" s="27" t="s">
-        <v>381</v>
+      <c r="A79" s="5">
+        <v>44116.798159224534</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="H79" s="29" t="s">
-        <v>382</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="I79" s="7"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="14"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="14"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="14"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="14"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="14"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="14"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="14"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="14"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="14"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="14"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="31"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="29"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="31"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="29"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="31"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="29"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="31"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="29"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="31"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="29"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="31"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="29"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="31"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="29"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="31"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="29"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="31"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="29"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="31"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="29"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="31"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="29"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="31"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="29"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="31"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="29"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="31"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="29"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B103" s="30"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="31"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="29"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B104" s="30"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="31"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="29"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="31"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="29"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="31"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="29"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="31"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="29"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="31"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="29"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="31"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="29"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="31"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="29"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B111" s="30"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="31"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="29"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="31"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="29"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="30"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="31"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="29"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B114" s="30"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="31"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="29"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="31"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="29"/>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="31"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="29"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="31"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="29"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="31"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="29"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="31"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="29"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B120" s="30"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="31"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="29"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="30"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="31"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="29"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="30"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="31"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="29"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B123" s="30"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="31"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="29"/>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B124" s="30"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="31"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="29"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B125" s="30"/>
-      <c r="C125" s="30"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="31"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="29"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="30"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="31"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="29"/>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B127" s="30"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="31"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="29"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="31"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="29"/>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B129" s="30"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="31"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="29"/>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B130" s="30"/>
-      <c r="C130" s="30"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="31"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="29"/>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B131" s="30"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="31"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="29"/>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B132" s="30"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="31"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="29"/>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B133" s="30"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="31"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="29"/>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="30"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="31"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="29"/>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B135" s="30"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="31"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="29"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B136" s="30"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="31"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="29"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B137" s="30"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="31"/>
+      <c r="B137" s="28"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="29"/>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B138" s="30"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="31"/>
+      <c r="B138" s="28"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="29"/>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="30"/>
-      <c r="C139" s="30"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="31"/>
+      <c r="B139" s="28"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="29"/>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B140" s="30"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="31"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="29"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B141" s="30"/>
-      <c r="C141" s="30"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="31"/>
+      <c r="B141" s="28"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="29"/>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B142" s="30"/>
-      <c r="C142" s="30"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="31"/>
+      <c r="B142" s="28"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="29"/>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B143" s="30"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="31"/>
+      <c r="B143" s="28"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="29"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B144" s="30"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="31"/>
+      <c r="B144" s="28"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="29"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B145" s="30"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="31"/>
+      <c r="B145" s="28"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="29"/>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B146" s="30"/>
-      <c r="C146" s="30"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="31"/>
+      <c r="B146" s="28"/>
+      <c r="C146" s="28"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="29"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B147" s="30"/>
-      <c r="C147" s="30"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="31"/>
+      <c r="B147" s="28"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="29"/>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B148" s="30"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="31"/>
+      <c r="B148" s="28"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="29"/>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B149" s="30"/>
-      <c r="C149" s="30"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="31"/>
+      <c r="B149" s="28"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="29"/>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B150" s="30"/>
-      <c r="C150" s="30"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="31"/>
+      <c r="B150" s="28"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="29"/>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B151" s="30"/>
-      <c r="C151" s="30"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="31"/>
+      <c r="B151" s="28"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="29"/>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B152" s="30"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="31"/>
+      <c r="B152" s="28"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="29"/>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B153" s="30"/>
-      <c r="C153" s="30"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="31"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="29"/>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B154" s="30"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="31"/>
+      <c r="B154" s="28"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="29"/>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B155" s="30"/>
-      <c r="C155" s="30"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="31"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="29"/>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B156" s="30"/>
-      <c r="C156" s="30"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="31"/>
+      <c r="B156" s="28"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="29"/>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B157" s="30"/>
-      <c r="C157" s="30"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
-      <c r="G157" s="14"/>
-      <c r="H157" s="31"/>
+      <c r="B157" s="28"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="29"/>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B158" s="30"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="31"/>
+      <c r="B158" s="28"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="29"/>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B159" s="30"/>
-      <c r="C159" s="30"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="31"/>
+      <c r="B159" s="28"/>
+      <c r="C159" s="28"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="29"/>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B160" s="30"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="31"/>
+      <c r="B160" s="28"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="29"/>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B161" s="30"/>
-      <c r="C161" s="30"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="31"/>
+      <c r="B161" s="28"/>
+      <c r="C161" s="28"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="29"/>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B162" s="30"/>
-      <c r="C162" s="30"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="31"/>
+      <c r="B162" s="28"/>
+      <c r="C162" s="28"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="29"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B163" s="30"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="31"/>
+      <c r="B163" s="28"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="29"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B164" s="30"/>
-      <c r="C164" s="30"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="31"/>
+      <c r="B164" s="28"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="29"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B165" s="30"/>
-      <c r="C165" s="30"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="31"/>
+      <c r="B165" s="28"/>
+      <c r="C165" s="28"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="29"/>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B166" s="30"/>
-      <c r="C166" s="30"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-      <c r="H166" s="31"/>
+      <c r="B166" s="28"/>
+      <c r="C166" s="28"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="29"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B167" s="30"/>
-      <c r="C167" s="30"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="31"/>
+      <c r="B167" s="28"/>
+      <c r="C167" s="28"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="29"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B168" s="30"/>
-      <c r="C168" s="30"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="31"/>
+      <c r="B168" s="28"/>
+      <c r="C168" s="28"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="29"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B169" s="30"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="31"/>
+      <c r="B169" s="28"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="29"/>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B170" s="30"/>
-      <c r="C170" s="30"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
-      <c r="H170" s="31"/>
+      <c r="B170" s="28"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="29"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B171" s="30"/>
-      <c r="C171" s="30"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
-      <c r="H171" s="31"/>
+      <c r="B171" s="28"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="29"/>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B172" s="30"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="31"/>
+      <c r="B172" s="28"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="29"/>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B173" s="30"/>
-      <c r="C173" s="30"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="31"/>
+      <c r="B173" s="28"/>
+      <c r="C173" s="28"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="29"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B174" s="30"/>
-      <c r="C174" s="30"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
-      <c r="H174" s="31"/>
+      <c r="B174" s="28"/>
+      <c r="C174" s="28"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="29"/>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B175" s="30"/>
-      <c r="C175" s="30"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
-      <c r="H175" s="31"/>
+      <c r="B175" s="28"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="29"/>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B176" s="30"/>
-      <c r="C176" s="30"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="31"/>
+      <c r="B176" s="28"/>
+      <c r="C176" s="28"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="29"/>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B177" s="30"/>
-      <c r="C177" s="30"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
-      <c r="H177" s="31"/>
+      <c r="B177" s="28"/>
+      <c r="C177" s="28"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="29"/>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B178" s="30"/>
-      <c r="C178" s="30"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
-      <c r="H178" s="31"/>
+      <c r="B178" s="28"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="29"/>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B179" s="30"/>
-      <c r="C179" s="30"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
-      <c r="H179" s="31"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N79" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N79" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N79">
+      <sortCondition ref="B1:B79"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="F29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="F31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="F35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="F37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="F41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="F43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="F46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="F49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="F51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="F53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="F55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="F56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="F57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="F58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="F59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F43" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F61" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F21" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F42" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F70" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F49" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F62" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F38" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F3" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F77" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F57" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F56" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F52" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F64" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F30" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F75" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F17" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F63" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F79" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F65" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F50" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F55" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F51" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F37" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F8" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F12" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F4" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F46" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F10" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F78" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F72" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F44" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F7" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F73" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F36" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F66" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F15" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F28" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F5" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F74" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F45" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F40" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F69" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F35" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F13" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F47" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F71" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="F60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="F61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="F63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="F64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="F65" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="F66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="F67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="F68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="F69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="F70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="F71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="F72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="F73" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F74" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="F75" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="F76" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="F77" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="F78" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="F79" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="F2" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F6" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F31" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F19" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="F20" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F59" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F29" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F33" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F41" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F76" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="F67" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F39" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="F26" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F48" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="F32" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F14" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="F58" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F68" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="F27" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId78"/>
